--- a/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_CTAfterMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_CTAfterMinutes_Test.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="98">
   <si>
     <t>ModuleName</t>
   </si>
@@ -262,12 +262,67 @@
   </si>
   <si>
     <t xml:space="preserve">ET_ETRM_Notify </t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>29-05-2024</t>
+  </si>
+  <si>
+    <t>29-05-2024 03:10:54 PM</t>
+  </si>
+  <si>
+    <t>29-05-2024 03:33:01 PM</t>
+  </si>
+  <si>
+    <t>29-05-2024 03:37:39 PM</t>
+  </si>
+  <si>
+    <t>29-05-2024 03:47:42 PM</t>
+  </si>
+  <si>
+    <t>29-05-2024 04:06:43 PM</t>
+  </si>
+  <si>
+    <t>ET442</t>
+  </si>
+  <si>
+    <t>29-05-2024 04:59:20 PM</t>
+  </si>
+  <si>
+    <t>ET443</t>
+  </si>
+  <si>
+    <t>29-05-2024 05:05:24 PM</t>
+  </si>
+  <si>
+    <t>ET444</t>
+  </si>
+  <si>
+    <t>ET445</t>
+  </si>
+  <si>
+    <t>29-05-2024 05:22:39 PM</t>
+  </si>
+  <si>
+    <t>ET446</t>
+  </si>
+  <si>
+    <t>29-05-2024 05:28:42 PM</t>
+  </si>
+  <si>
+    <t>ET447</t>
+  </si>
+  <si>
+    <t>ET448</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -622,34 +677,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="9.1796875" style="1"/>
-    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="1"/>
-    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.1796875" style="1"/>
-    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.81640625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
+    <col min="12" max="17" style="1" width="9.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="19" max="19" style="1" width="9.1796875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
+    <col min="22" max="23" style="1" width="9.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.54296875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.81640625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.26953125"/>
+    <col min="34" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -784,8 +839,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>71</v>
+      <c r="K2" t="s" s="1">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -793,10 +848,10 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" t="s" s="1">
+        <v>93</v>
+      </c>
+      <c r="O2" t="s" s="1">
         <v>69</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -847,11 +902,11 @@
       <c r="AF2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>70</v>
+      <c r="AG2" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="AK2" t="s" s="1">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -873,23 +928,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1024,8 +1079,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>71</v>
+      <c r="K2" t="s" s="0">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1033,10 +1088,10 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>69</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1086,8 +1141,8 @@
       <c r="AF2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AG2" t="s">
-        <v>74</v>
+      <c r="AG2" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1110,12 +1165,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1250,8 +1305,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>71</v>
+      <c r="K2" t="s" s="0">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1259,10 +1314,10 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>69</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1312,8 +1367,8 @@
       <c r="AF2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" t="s">
-        <v>75</v>
+      <c r="AG2" t="s" s="0">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1335,11 +1390,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1474,8 +1529,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>71</v>
+      <c r="K2" t="s" s="0">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1483,10 +1538,10 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>69</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1536,8 +1591,8 @@
       <c r="AF2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" t="s">
-        <v>75</v>
+      <c r="AG2" t="s" s="0">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_CTAfterMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_CTAfterMinutes_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="81">
   <si>
     <t>ModuleName</t>
   </si>
@@ -171,9 +171,6 @@
     <t>NotifyTemplate_Msg</t>
   </si>
   <si>
-    <t>tskNT_ExecuteTask_CTAfterMinutes</t>
-  </si>
-  <si>
     <t>RelatedModuleText</t>
   </si>
   <si>
@@ -234,24 +231,6 @@
     <t>02:35:55 PM</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>05-20-2024</t>
-  </si>
-  <si>
-    <t>05-23-2024 05:00:00 PM</t>
-  </si>
-  <si>
-    <t>ET326</t>
-  </si>
-  <si>
-    <t>ET327</t>
-  </si>
-  <si>
-    <t>ET328</t>
-  </si>
-  <si>
     <t>wf_ET_ETRM_Notifications</t>
   </si>
   <si>
@@ -270,39 +249,6 @@
     <t>29-05-2024</t>
   </si>
   <si>
-    <t>29-05-2024 03:10:54 PM</t>
-  </si>
-  <si>
-    <t>29-05-2024 03:33:01 PM</t>
-  </si>
-  <si>
-    <t>29-05-2024 03:37:39 PM</t>
-  </si>
-  <si>
-    <t>29-05-2024 03:47:42 PM</t>
-  </si>
-  <si>
-    <t>29-05-2024 04:06:43 PM</t>
-  </si>
-  <si>
-    <t>ET442</t>
-  </si>
-  <si>
-    <t>29-05-2024 04:59:20 PM</t>
-  </si>
-  <si>
-    <t>ET443</t>
-  </si>
-  <si>
-    <t>29-05-2024 05:05:24 PM</t>
-  </si>
-  <si>
-    <t>ET444</t>
-  </si>
-  <si>
-    <t>ET445</t>
-  </si>
-  <si>
     <t>29-05-2024 05:22:39 PM</t>
   </si>
   <si>
@@ -316,13 +262,15 @@
   </si>
   <si>
     <t>ET448</t>
+  </si>
+  <si>
+    <t>ET_CTAfterMinutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,40 +619,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.81640625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
-    <col min="12" max="17" style="1" width="9.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="19" max="19" style="1" width="9.1796875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
-    <col min="22" max="23" style="1" width="9.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.81640625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.26953125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.54296875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.81640625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.81640625"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.26953125"/>
-    <col min="34" max="16384" style="1" width="9.1796875"/>
+    <col min="1" max="1" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="9.1796875" style="1"/>
+    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" style="1"/>
+    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.1796875" style="1"/>
+    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -805,7 +753,7 @@
         <v>48</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.35">
@@ -813,7 +761,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -839,8 +787,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="1">
-        <v>81</v>
+      <c r="K2" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -848,11 +796,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="1">
-        <v>93</v>
-      </c>
-      <c r="O2" t="s" s="1">
-        <v>69</v>
+      <c r="N2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -867,7 +815,7 @@
         <v>1000</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>35</v>
@@ -879,16 +827,16 @@
         <v>37</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>44</v>
@@ -900,13 +848,13 @@
         <v>47</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG2" t="s" s="1">
-        <v>94</v>
-      </c>
-      <c r="AK2" t="s" s="1">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -928,23 +876,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" customWidth="true" width="21.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1045,7 +993,7 @@
         <v>48</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
@@ -1053,7 +1001,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1065,22 +1013,22 @@
         <v>1234567890</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>81</v>
+      <c r="K2" t="s">
+        <v>74</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1088,17 +1036,17 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>69</v>
+      <c r="N2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R2" s="1">
         <v>2323232323</v>
@@ -1107,10 +1055,10 @@
         <v>1000</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>36</v>
@@ -1119,16 +1067,16 @@
         <v>37</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1139,10 +1087,10 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>96</v>
+        <v>72</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1160,17 +1108,17 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1271,7 +1219,7 @@
         <v>48</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="29" x14ac:dyDescent="0.35">
@@ -1279,7 +1227,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1291,22 +1239,22 @@
         <v>1234567890</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>81</v>
+      <c r="K2" t="s">
+        <v>74</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1314,17 +1262,17 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>69</v>
+      <c r="N2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R2" s="1">
         <v>2323232323</v>
@@ -1333,10 +1281,10 @@
         <v>1000</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>36</v>
@@ -1345,16 +1293,16 @@
         <v>37</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1365,10 +1313,10 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>97</v>
+        <v>71</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1384,17 +1332,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1495,7 +1443,7 @@
         <v>48</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="29" x14ac:dyDescent="0.35">
@@ -1503,7 +1451,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1515,22 +1463,22 @@
         <v>1234567890</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>81</v>
+      <c r="K2" t="s">
+        <v>74</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1538,17 +1486,17 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>69</v>
+      <c r="N2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R2" s="1">
         <v>2323232323</v>
@@ -1557,10 +1505,10 @@
         <v>1000</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>36</v>
@@ -1569,16 +1517,16 @@
         <v>37</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1589,10 +1537,10 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>97</v>
+        <v>71</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_CTAfterMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_CTAfterMinutes_Test.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="86">
   <si>
     <t>ModuleName</t>
   </si>
@@ -265,12 +265,28 @@
   </si>
   <si>
     <t>ET_CTAfterMinutes</t>
+  </si>
+  <si>
+    <t>24-07-2024</t>
+  </si>
+  <si>
+    <t>27-07-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET2808</t>
+  </si>
+  <si>
+    <t>ET2809</t>
+  </si>
+  <si>
+    <t>ET2810</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -625,34 +641,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="9.1796875" style="1"/>
-    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="1"/>
-    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.1796875" style="1"/>
-    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.81640625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
+    <col min="12" max="17" style="1" width="9.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="19" max="19" style="1" width="9.1796875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
+    <col min="22" max="23" style="1" width="9.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.54296875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.81640625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.26953125"/>
+    <col min="34" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -787,8 +803,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>74</v>
+      <c r="K2" t="s" s="1">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -796,10 +812,10 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s" s="1">
         <v>68</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -850,10 +866,10 @@
       <c r="AF2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AG2" t="s" s="1">
+        <v>83</v>
+      </c>
+      <c r="AK2" t="s" s="1">
         <v>73</v>
       </c>
     </row>
@@ -876,23 +892,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1027,8 +1043,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>74</v>
+      <c r="K2" t="s" s="0">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1036,10 +1052,10 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>68</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1089,8 +1105,8 @@
       <c r="AF2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AG2" t="s">
-        <v>78</v>
+      <c r="AG2" t="s" s="0">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1113,12 +1129,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1253,8 +1269,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>74</v>
+      <c r="K2" t="s" s="0">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1262,10 +1278,10 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>68</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1315,8 +1331,8 @@
       <c r="AF2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AG2" t="s">
-        <v>79</v>
+      <c r="AG2" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1338,11 +1354,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1477,8 +1493,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>74</v>
+      <c r="K2" t="s" s="0">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1486,10 +1502,10 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>68</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1539,8 +1555,8 @@
       <c r="AF2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AG2" t="s">
-        <v>79</v>
+      <c r="AG2" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
